--- a/va_facility_data_2025-02-20/New Albany VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Albany%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/New Albany VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Albany%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0067895790ce456c910308ae66a715a3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfa25dce8f9784b728652cdf872d05452"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5ab5ea7203874d4fbe66aee05faac50e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R82dc914703f44126ab0f7e9b5ef67cf0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R612b4bcdbffd4f31a6c34676e1e458ce"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2a99059e877d451087a20fecd2e6d6f7"/>
   </x:sheets>
 </x:workbook>
 </file>
